--- a/Professional/Fall-2025-Internship-Applications.xlsx
+++ b/Professional/Fall-2025-Internship-Applications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scott\Documents\Folder\Professional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852408B1-6AAF-4186-9D34-B86490CAB27C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF23B00-165A-4634-985B-9B017E474368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="14860" xr2:uid="{EE9BE8F8-8993-434B-83DF-83945B9CA987}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EE9BE8F8-8993-434B-83DF-83945B9CA987}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
   <si>
     <t>Company</t>
   </si>
@@ -62,17 +62,158 @@
     <t>Audi Controls</t>
   </si>
   <si>
-    <t>Firefly GNC</t>
-  </si>
-  <si>
     <t>MIT Lincoln Laboratories Co-Op</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Date Applied</t>
+  </si>
+  <si>
+    <t>Acceptance</t>
+  </si>
+  <si>
+    <t>Mitsubishi Electric Reserach Laboratories</t>
+  </si>
+  <si>
+    <t>GNC Simulator</t>
+  </si>
+  <si>
+    <t>SpaceX</t>
+  </si>
+  <si>
+    <t>Engineer</t>
+  </si>
+  <si>
+    <t>Astranis</t>
+  </si>
+  <si>
+    <t>GNC Engineer</t>
+  </si>
+  <si>
+    <t>Blue Origin</t>
+  </si>
+  <si>
+    <t>Space Kinetic</t>
+  </si>
+  <si>
+    <t>Aerospace/Mechnical Engineer</t>
+  </si>
+  <si>
+    <t>Vast</t>
+  </si>
+  <si>
+    <t>Mechanical/Aerospace Engineer</t>
+  </si>
+  <si>
+    <t>Zipline</t>
+  </si>
+  <si>
+    <t>Control &amp; Dynamics Intern</t>
+  </si>
+  <si>
+    <t>Simulation Engineering Intern</t>
+  </si>
+  <si>
+    <t>Draper Laboratories</t>
+  </si>
+  <si>
+    <t>System Concepts and Design Fall 2025 Co-op</t>
+  </si>
+  <si>
+    <t>Firefly Aerospace</t>
+  </si>
+  <si>
+    <t>Software Engineering Intern</t>
+  </si>
+  <si>
+    <t>Orbital Operations</t>
+  </si>
+  <si>
+    <t>Engineering Intern</t>
+  </si>
+  <si>
+    <t>Reflect Orbital</t>
+  </si>
+  <si>
+    <t>Astrion</t>
+  </si>
+  <si>
+    <t>Tesla</t>
+  </si>
+  <si>
+    <t>Controls Engineer, Energy Engineering</t>
+  </si>
+  <si>
+    <t>Motor Controls Engineer, Vehicle Controlss</t>
+  </si>
+  <si>
+    <t>Software Controls Engineer, Optimus</t>
+  </si>
+  <si>
+    <t>Chassis Controls Technical Project Manager, Vehicle Firmware</t>
+  </si>
+  <si>
+    <t>Thermo Systems</t>
+  </si>
+  <si>
+    <t>Control Systems Co-Op</t>
+  </si>
+  <si>
+    <t>Audi</t>
+  </si>
+  <si>
+    <t>MIT Lincoln Laboratories</t>
+  </si>
+  <si>
+    <t>Kodiak</t>
+  </si>
+  <si>
+    <t>Figure</t>
+  </si>
+  <si>
+    <t>Fall 2025 Engineering Internship</t>
+  </si>
+  <si>
+    <t>Star Catcher</t>
+  </si>
+  <si>
+    <t>ANELLO Photonics</t>
+  </si>
+  <si>
+    <t>Navigation Engineer Internship</t>
+  </si>
+  <si>
+    <t>Spacecraft Engineering Intern</t>
+  </si>
+  <si>
+    <t>Reditus Space</t>
+  </si>
+  <si>
+    <t>Flight Dynamics Intern</t>
+  </si>
+  <si>
+    <t>ICEYE</t>
+  </si>
+  <si>
+    <t>Flight Dynamics Research Intern</t>
+  </si>
+  <si>
+    <t>Mclaurin Aerospace</t>
+  </si>
+  <si>
+    <t>RippleMatch</t>
+  </si>
+  <si>
+    <t>Aerospace Engineering Intern</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,16 +236,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF34A853"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEA4335"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -112,16 +278,141 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -457,89 +748,591 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C71847D-CA1A-4D19-BBB0-CAE6BF766BDE}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="29.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="G1" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5">
+        <v>45823</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5">
+        <v>45825</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5">
+        <v>45823</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5">
+        <v>45823</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5">
+        <v>45823</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5">
+        <v>45823</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5">
+        <v>45825</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5">
+        <v>45825</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5">
+        <v>45823</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5">
+        <v>45823</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5">
+        <v>45823</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5">
+        <v>45823</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5">
+        <v>45826</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5">
+        <v>45826</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5">
+        <v>45826</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5">
+        <v>45826</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5">
+        <v>45830</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="C19" s="4"/>
+      <c r="D19" s="12">
+        <v>45850</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="12">
+        <v>45850</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3">
+      <c r="C21" s="4"/>
+      <c r="D21" s="12">
         <v>45850</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="E21" s="4"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="12">
         <v>45850</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
+      <c r="E22" s="4"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="12">
         <v>45850</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
+      <c r="E23" s="4"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="12">
         <v>45850</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3">
-        <v>45850</v>
-      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="12">
+        <v>45866</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="12">
+        <v>45866</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="12">
+        <v>45866</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="12">
+        <v>45866</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="14">
+        <v>45874</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="14">
+        <v>45874</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="14">
+        <v>45874</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Audi" xr:uid="{3CEDB939-5EA2-46A7-A1A9-77F384AFE231}"/>
-    <hyperlink ref="A3" r:id="rId2" location="jobopenings" display="Firefly" xr:uid="{3B62B15E-6B24-4EB7-95B0-B7F980FE6EFA}"/>
-    <hyperlink ref="A4" r:id="rId3" display="MIT Lincoln Laboratories" xr:uid="{A8C7F449-683A-48F6-AD87-19099E022EC5}"/>
-    <hyperlink ref="A5" r:id="rId4" display="Kodiak" xr:uid="{CAB97F38-8452-4D03-9692-3D6A999A7136}"/>
-    <hyperlink ref="A6" r:id="rId5" xr:uid="{05D19B4E-FFEF-49BA-9615-A32B9464DBE7}"/>
-    <hyperlink ref="A7" r:id="rId6" xr:uid="{765A936D-E84D-4A38-8AD6-F846BF130B80}"/>
+    <hyperlink ref="B18" r:id="rId1" display="https://thermosystems.com/careers/?jobId=9ee099cc-cd27-4cbd-b6a7-66fd5c49cf79" xr:uid="{939A2BDB-87F3-4F32-9086-AF7E16576E40}"/>
+    <hyperlink ref="B17" r:id="rId2" display="https://www.tesla.com/careers/search/job/internship-chassis-controls-technical-project-manager-vehicle-firmware-fall-2025-240866" xr:uid="{A8DEEDF8-F298-4591-A256-5243A668B289}"/>
+    <hyperlink ref="B16" r:id="rId3" display="https://www.tesla.com/careers/search/job/internship-software-controls-engineer-optimus-fall-2025-241053" xr:uid="{1B6AE2B4-254F-4FB9-8F84-802CF46A7681}"/>
+    <hyperlink ref="B15" r:id="rId4" display="http://tesla.com/careers/search/job/internship-motor-controls-engineer-vehicle-controls-fall-2025-243477" xr:uid="{F3CD9840-13E5-47E7-8AA6-4B7337A3C9BD}"/>
+    <hyperlink ref="B14" r:id="rId5" display="https://www.tesla.com/careers/search/job/internship-controls-engineer-energy-engineering-fall-2025-243843" xr:uid="{DD6AF413-7F1A-43A7-A732-F0DEAFC6D804}"/>
+    <hyperlink ref="B13" r:id="rId6" display="https://jobs.ashbyhq.com/reflect-orbital/a410d153-1177-48df-a166-e59fc18ce534" xr:uid="{0E78C1E7-5971-4D68-A08D-71FFC674F880}"/>
+    <hyperlink ref="B11" r:id="rId7" location="jobopenings" display="https://fireflyspace.com/careers/?jobId=ee4a2e87-dc33-c12b-d025-085a77d1ca8c - jobopenings" xr:uid="{344F2513-4768-448E-93DA-3202AF660D94}"/>
+    <hyperlink ref="B10" r:id="rId8" display="https://draper.wd5.myworkdayjobs.com/en-US/Draper_Careers/job/Cambridge-MA/System-Concepts-and-Design-Fall-2025-Co-op_JR001222" xr:uid="{FC66F1E1-7F44-4CE8-B815-ACEEB99C7E8F}"/>
+    <hyperlink ref="B9" r:id="rId9" display="https://www.zipline.com/careers/open-roles/6587469003" xr:uid="{1A89186A-012D-4907-889F-B1371B3F6614}"/>
+    <hyperlink ref="B8" r:id="rId10" display="https://www.zipline.com/careers/open-roles/6585980003" xr:uid="{31B3AF15-3160-4A23-AAF9-7FB124E0A4D1}"/>
+    <hyperlink ref="B7" r:id="rId11" display="https://job-boards.greenhouse.io/vast/jobs/4443571006?gh_jid=4443571006" xr:uid="{3287E1D3-D8A8-437D-8A19-308D24B94A16}"/>
+    <hyperlink ref="B6" r:id="rId12" display="https://job-boards.greenhouse.io/spacekinetic/jobs/4643522008" xr:uid="{773DF837-7213-42EA-BFE5-8A16B3AE8535}"/>
+    <hyperlink ref="B5" r:id="rId13" display="https://blueorigin.wd5.myworkdayjobs.com/BlueOrigin/job/Seattle-WA/Spring-2026-Return-Internship---Graduate_R52465" xr:uid="{3E71D942-7433-4AB8-9329-5DDDCCCD86FA}"/>
+    <hyperlink ref="B4" r:id="rId14" display="https://job-boards.greenhouse.io/astranis/jobs/4395411006" xr:uid="{D722E27F-BF40-4366-937A-066B9E60C80D}"/>
+    <hyperlink ref="B3" r:id="rId15" display="https://job-boards.greenhouse.io/spacex/jobs/7907289002?gh_jid=7907289002" xr:uid="{ACEAFE90-4AD5-4C33-AF0C-1B95EE09BE1F}"/>
+    <hyperlink ref="B2" r:id="rId16" display="https://merl.clearcompany.com/careers/jobs/71a24a8c-5774-a50a-9718-a3c2a8e4ef5e/apply" xr:uid="{9D503173-A761-4758-86A7-99F8B64F76AA}"/>
+    <hyperlink ref="B19:B25" r:id="rId17" display="https://thermosystems.com/careers/?jobId=9ee099cc-cd27-4cbd-b6a7-66fd5c49cf79" xr:uid="{38570375-23EA-412C-8800-63BA5B8B493E}"/>
+    <hyperlink ref="B26" r:id="rId18" xr:uid="{4816334D-8569-4258-9106-D73FAD0064E8}"/>
+    <hyperlink ref="B27" r:id="rId19" xr:uid="{C3B09ED0-4443-4541-8801-0D2F1CADE3B4}"/>
+    <hyperlink ref="B12" r:id="rId20" display="https://ats.rippling.com/orbital-operations/jobs/8d9c39db-89af-4ab5-9005-3ea26a438506" xr:uid="{5BA0B1BF-D9B5-4790-9DBF-6506FA2483C4}"/>
+    <hyperlink ref="B28" r:id="rId21" xr:uid="{FF8A55F8-7BE1-4BD4-9BC6-F97781023900}"/>
+    <hyperlink ref="B29" r:id="rId22" xr:uid="{C4B48B1C-EE4C-4BB0-BFA5-A96DE0C8B696}"/>
+    <hyperlink ref="B30" r:id="rId23" xr:uid="{BABD99AF-FE10-46DD-A1E3-6C1B6CC57D29}"/>
+    <hyperlink ref="B31" r:id="rId24" xr:uid="{FF852428-D98E-4682-A794-7E0902F0FB96}"/>
+    <hyperlink ref="B32" r:id="rId25" xr:uid="{B2C50222-471B-4775-B8BC-58605165D307}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId7"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId26"/>
 </worksheet>
 </file>
--- a/Professional/Fall-2025-Internship-Applications.xlsx
+++ b/Professional/Fall-2025-Internship-Applications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scott\Documents\Folder\Professional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF23B00-165A-4634-985B-9B017E474368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E230C5-070E-4DFB-9B4A-00A70EEC64E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EE9BE8F8-8993-434B-83DF-83945B9CA987}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="14860" xr2:uid="{EE9BE8F8-8993-434B-83DF-83945B9CA987}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -751,20 +751,20 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.5703125" customWidth="1"/>
+    <col min="1" max="1" width="36.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.54296875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" customWidth="1"/>
+    <col min="9" max="9" width="29.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -787,7 +787,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -802,7 +802,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>14</v>
       </c>
@@ -817,7 +817,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>16</v>
       </c>
@@ -832,7 +832,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>18</v>
       </c>
@@ -847,7 +847,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
@@ -862,7 +862,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
         <v>21</v>
       </c>
@@ -873,11 +873,11 @@
       <c r="D7" s="5">
         <v>45823</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>23</v>
       </c>
@@ -892,7 +892,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
@@ -907,7 +907,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
         <v>26</v>
       </c>
@@ -922,7 +922,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="10" t="s">
         <v>28</v>
       </c>
@@ -937,7 +937,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
         <v>30</v>
       </c>
@@ -952,7 +952,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="10" t="s">
         <v>32</v>
       </c>
@@ -967,7 +967,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="10" t="s">
         <v>34</v>
       </c>
@@ -982,7 +982,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="10" t="s">
         <v>34</v>
       </c>
@@ -997,7 +997,7 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="10" t="s">
         <v>34</v>
       </c>
@@ -1012,7 +1012,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="10" t="s">
         <v>34</v>
       </c>
@@ -1027,7 +1027,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="10" t="s">
         <v>39</v>
       </c>
@@ -1042,7 +1042,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="10" t="s">
         <v>41</v>
       </c>
@@ -1057,7 +1057,7 @@
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="10" t="s">
         <v>28</v>
       </c>
@@ -1072,7 +1072,7 @@
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="10" t="s">
         <v>42</v>
       </c>
@@ -1087,7 +1087,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="10" t="s">
         <v>43</v>
       </c>
@@ -1099,10 +1099,10 @@
         <v>45850</v>
       </c>
       <c r="E22" s="4"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="10" t="s">
         <v>43</v>
       </c>
@@ -1114,10 +1114,10 @@
         <v>45850</v>
       </c>
       <c r="E23" s="4"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="10" t="s">
         <v>44</v>
       </c>
@@ -1132,7 +1132,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="10" t="s">
         <v>46</v>
       </c>
@@ -1147,7 +1147,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="10" t="s">
         <v>47</v>
       </c>
@@ -1162,7 +1162,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="10" t="s">
         <v>50</v>
       </c>
@@ -1177,7 +1177,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="10" t="s">
         <v>52</v>
       </c>
@@ -1192,7 +1192,7 @@
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
     </row>
-    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="10" t="s">
         <v>54</v>
       </c>
@@ -1207,7 +1207,7 @@
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="10" t="s">
         <v>55</v>
       </c>
@@ -1222,7 +1222,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="10" t="s">
         <v>55</v>
       </c>
@@ -1237,7 +1237,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
     </row>
-    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="10" t="s">
         <v>33</v>
       </c>
@@ -1250,7 +1250,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -1259,7 +1259,7 @@
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
     </row>
-    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -1268,7 +1268,7 @@
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -1277,7 +1277,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
     </row>
-    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -1286,7 +1286,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -1295,7 +1295,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
